--- a/timetables/eht.xlsx
+++ b/timetables/eht.xlsx
@@ -2310,7 +2310,7 @@
         <color indexed="0"/>
       </left>
       <right style="thick">
-        <color indexed="0"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -2318,6 +2318,17 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2328,57 +2339,11 @@
         <color indexed="0"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="0"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2565,6 +2530,41 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="0"/>
+      </left>
+      <right style="thick">
+        <color indexed="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3316,18 +3316,30 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="92" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="112" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="113" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="117" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="118" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="106" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="107" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="117" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="118" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3346,18 +3358,6 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="112" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="113" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3425,6 +3425,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="100" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="127" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="112" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="133" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="129" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="134" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="134" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3505,6 +3535,12 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="138" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -3568,9 +3604,6 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="137" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3601,43 +3634,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="127" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="112" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="133" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="129" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="134" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="134" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="112" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="133" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="138" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="129" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -4108,10 +4108,10 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="171" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="168" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="178" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="175" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="157" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -4135,40 +4135,40 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="153" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="165" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="133" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="180" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="163" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="133" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="164" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="167" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="155" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="180" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="177" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="154" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="169" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="166" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="162" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="182" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="181" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="173" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="179" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="178" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="170" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="150" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -4177,16 +4177,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="152" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="170" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="171" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="174" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="173" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="174" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="177" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="176" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -4217,7 +4217,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="189" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="175" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="172" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="186" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -4227,10 +4227,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="188" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="180" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="177" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="187" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -4691,7 +4691,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18:K19"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -4734,7 +4734,7 @@
     <row r="2" ht="40.5" customHeight="1" s="77">
       <c r="A2" s="75" t="n"/>
       <c r="B2" s="75" t="n"/>
-      <c r="C2" s="230" t="inlineStr">
+      <c r="C2" s="242" t="inlineStr">
         <is>
           <t>ФГБОУ ВО</t>
         </is>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="I2" s="75" t="n"/>
       <c r="J2" s="75" t="n"/>
-      <c r="K2" s="249" t="inlineStr">
+      <c r="K2" s="260" t="inlineStr">
         <is>
           <t>РАСПИСАНИЕ</t>
         </is>
@@ -4795,7 +4795,7 @@
       <c r="Q2" s="75" t="n"/>
       <c r="R2" s="75" t="n"/>
       <c r="S2" s="75" t="n"/>
-      <c r="T2" s="246" t="inlineStr">
+      <c r="T2" s="257" t="inlineStr">
         <is>
           <t>"Утверждаю"</t>
         </is>
@@ -4810,7 +4810,7 @@
     <row r="3" ht="40.5" customHeight="1" s="77">
       <c r="A3" s="75" t="n"/>
       <c r="B3" s="75" t="n"/>
-      <c r="C3" s="231" t="inlineStr">
+      <c r="C3" s="243" t="inlineStr">
         <is>
           <t>"Воронежский государственный</t>
         </is>
@@ -4872,7 +4872,7 @@
       <c r="R3" s="75" t="n"/>
       <c r="S3" s="75" t="n"/>
       <c r="T3" s="75" t="n"/>
-      <c r="U3" s="246" t="inlineStr">
+      <c r="U3" s="257" t="inlineStr">
         <is>
           <t>Проректор по учебной работе</t>
         </is>
@@ -4882,7 +4882,7 @@
     <row r="4" ht="40.5" customHeight="1" s="77" thickBot="1">
       <c r="A4" s="75" t="n"/>
       <c r="B4" s="75" t="n"/>
-      <c r="C4" s="231" t="inlineStr">
+      <c r="C4" s="243" t="inlineStr">
         <is>
           <t>университет инженерных технологий"</t>
         </is>
@@ -4943,7 +4943,7 @@
       <c r="Q4" s="75" t="n"/>
       <c r="R4" s="75" t="n"/>
       <c r="S4" s="75" t="n"/>
-      <c r="T4" s="247" t="inlineStr">
+      <c r="T4" s="258" t="inlineStr">
         <is>
           <t>В.Н.Василенко</t>
         </is>
@@ -4975,7 +4975,7 @@
       <c r="Q5" s="72" t="n"/>
       <c r="R5" s="72" t="n"/>
       <c r="S5" s="72" t="n"/>
-      <c r="T5" s="248" t="inlineStr">
+      <c r="T5" s="259" t="inlineStr">
         <is>
           <t>"       "                                    2021г.</t>
         </is>
@@ -5001,7 +5001,7 @@
       <c r="H6" s="74" t="n"/>
       <c r="I6" s="74" t="n"/>
       <c r="J6" s="74" t="n"/>
-      <c r="K6" s="250" t="inlineStr">
+      <c r="K6" s="261" t="inlineStr">
         <is>
           <t>весеннего семестра     2020-2021 учебного года</t>
         </is>
@@ -5085,7 +5085,7 @@
           <t>Х-204</t>
         </is>
       </c>
-      <c r="K7" s="232" t="inlineStr">
+      <c r="K7" s="244" t="inlineStr">
         <is>
           <t>Х-191</t>
         </is>
@@ -5141,13 +5141,13 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="30" customHeight="1" s="77" thickTop="1">
+    <row r="8" ht="32.1" customHeight="1" s="77" thickTop="1">
       <c r="A8" s="421" t="inlineStr">
         <is>
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B8" s="195" t="inlineStr">
+      <c r="B8" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -5205,7 +5205,7 @@
       <c r="T8" s="422" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
     </row>
-    <row r="9" ht="30" customHeight="1" s="77" thickBot="1">
+    <row r="9" ht="32.1" customHeight="1" s="77" thickBot="1">
       <c r="A9" t="inlineStr">
         <is>
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
@@ -5251,7 +5251,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
     </row>
-    <row r="10" ht="30" customHeight="1" s="77">
+    <row r="10" ht="32.1" customHeight="1" s="77">
       <c r="A10" t="inlineStr">
         <is>
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
@@ -5303,7 +5303,7 @@
 Чурилина Е.В.   6-13</t>
         </is>
       </c>
-      <c r="L10" s="213" t="inlineStr">
+      <c r="L10" s="223" t="inlineStr">
         <is>
           <t>л.Прикладная механика               Литвинов Е.В.   53</t>
         </is>
@@ -5354,7 +5354,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="30" customHeight="1" s="77" thickBot="1">
+    <row r="11" ht="32.1" customHeight="1" s="77" thickBot="1">
       <c r="A11" t="inlineStr">
         <is>
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
@@ -5468,7 +5468,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="30" customHeight="1" s="77">
+    <row r="12" ht="32.1" customHeight="1" s="77">
       <c r="A12" t="inlineStr">
         <is>
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
@@ -5525,7 +5525,7 @@
 Перегудов Ю.С.   027</t>
         </is>
       </c>
-      <c r="K12" s="168" t="inlineStr">
+      <c r="K12" s="160" t="inlineStr">
         <is>
           <t>л.Общая химическая технология
 Санникова  Н.Ю.   6-04</t>
@@ -5582,7 +5582,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="30" customHeight="1" s="77" thickBot="1">
+    <row r="13" ht="32.1" customHeight="1" s="77" thickBot="1">
       <c r="A13" t="inlineStr">
         <is>
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
@@ -5696,7 +5696,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="30" customHeight="1" s="77">
+    <row r="14" ht="32.1" customHeight="1" s="77">
       <c r="A14" t="inlineStr">
         <is>
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
@@ -5809,7 +5809,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="30" customHeight="1" s="77" thickBot="1">
+    <row r="15" ht="32.1" customHeight="1" s="77" thickBot="1">
       <c r="A15" t="inlineStr">
         <is>
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
@@ -5917,7 +5917,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="30" customHeight="1" s="77">
+    <row r="16" ht="32.1" customHeight="1" s="77">
       <c r="A16" t="inlineStr">
         <is>
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
@@ -5946,7 +5946,7 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" s="427" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" s="168" t="n"/>
+      <c r="K16" s="160" t="n"/>
       <c r="L16" s="123" t="inlineStr">
         <is>
           <t>лаб.Прикладная механика,
@@ -5998,7 +5998,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="30" customHeight="1" s="77" thickBot="1">
+    <row r="17" ht="32.1" customHeight="1" s="77" thickBot="1">
       <c r="A17" t="inlineStr">
         <is>
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
@@ -6067,7 +6067,7 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" s="427" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" s="168" t="inlineStr"/>
+      <c r="K18" s="160" t="inlineStr"/>
       <c r="L18" s="427" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" s="427" t="inlineStr"/>
@@ -6172,13 +6172,13 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
     </row>
-    <row r="22" ht="30" customHeight="1" s="77" thickTop="1">
+    <row r="22" ht="32.1" customHeight="1" s="77" thickTop="1">
       <c r="A22" s="421" t="inlineStr">
         <is>
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B22" s="195" t="inlineStr">
+      <c r="B22" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -6248,7 +6248,7 @@
       <c r="T22" s="438" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
     </row>
-    <row r="23" ht="30" customHeight="1" s="77" thickBot="1">
+    <row r="23" ht="32.1" customHeight="1" s="77" thickBot="1">
       <c r="A23" t="inlineStr">
         <is>
           <t xml:space="preserve">ВТОРНИК     </t>
@@ -6343,7 +6343,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="30" customHeight="1" s="77">
+    <row r="24" ht="32.1" customHeight="1" s="77">
       <c r="A24" t="inlineStr">
         <is>
           <t xml:space="preserve">ВТОРНИК     </t>
@@ -6363,7 +6363,7 @@
       <c r="D24" s="124" t="inlineStr">
         <is>
           <t>лаб.Физика,
-Буданов А.В.   51</t>
+Власов Ю.Н.   51</t>
         </is>
       </c>
       <c r="E24" s="427" t="inlineStr">
@@ -6402,7 +6402,7 @@
 Алехина  А.В.   5-27</t>
         </is>
       </c>
-      <c r="K24" s="168" t="inlineStr"/>
+      <c r="K24" s="160" t="inlineStr"/>
       <c r="L24" s="123" t="n"/>
       <c r="M24" s="124" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
 Москалев А.С.   6-11</t>
         </is>
       </c>
-      <c r="P24" s="213" t="inlineStr">
+      <c r="P24" s="223" t="inlineStr">
         <is>
           <t>л.Общая химическая технология и химические реакторы                 Санникова  Н.Ю.   6-13</t>
         </is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="30" customHeight="1" s="77" thickBot="1">
+    <row r="25" ht="32.1" customHeight="1" s="77" thickBot="1">
       <c r="A25" t="inlineStr">
         <is>
           <t xml:space="preserve">ВТОРНИК     </t>
@@ -6467,7 +6467,7 @@
       <c r="C25" s="127" t="inlineStr">
         <is>
           <t>лаб.Физика,
-Буданов А.В.   51</t>
+Власов Ю.Н.   51</t>
         </is>
       </c>
       <c r="D25" s="128" t="inlineStr">
@@ -6620,7 +6620,7 @@
 Черных В.Д.   14</t>
         </is>
       </c>
-      <c r="L26" s="213" t="inlineStr">
+      <c r="L26" s="223" t="inlineStr">
         <is>
           <t>л.Химия и физика полимеров              Седых  В.А.   6-13</t>
         </is>
@@ -6829,7 +6829,7 @@
           <t>ЭСТЕТИКА И КУЛЬТУРА             БАЗ</t>
         </is>
       </c>
-      <c r="K28" s="168" t="inlineStr">
+      <c r="K28" s="160" t="inlineStr">
         <is>
           <t>пр.Философия
 Черниговских И.В.   46</t>
@@ -6983,7 +6983,7 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" s="427" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" s="168" t="inlineStr">
+      <c r="K30" s="160" t="inlineStr">
         <is>
           <t>пр.Электротехника и электроника
 Никель С.А.   329</t>
@@ -7075,7 +7075,7 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" s="427" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" s="168" t="inlineStr"/>
+      <c r="K32" s="160" t="inlineStr"/>
       <c r="L32" s="427" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" s="427" t="inlineStr"/>
@@ -7180,13 +7180,13 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
     </row>
-    <row r="36" ht="30" customHeight="1" s="77" thickTop="1">
+    <row r="36" ht="32.1" customHeight="1" s="77" thickTop="1">
       <c r="A36" s="421" t="inlineStr">
         <is>
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B36" s="195" t="inlineStr">
+      <c r="B36" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -7256,7 +7256,7 @@
       <c r="T36" s="427" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
     </row>
-    <row r="37" ht="30" customHeight="1" s="77" thickBot="1">
+    <row r="37" ht="32.1" customHeight="1" s="77" thickBot="1">
       <c r="A37" t="inlineStr">
         <is>
           <t xml:space="preserve"> СРЕДА      </t>
@@ -7326,7 +7326,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
     </row>
-    <row r="38" ht="30" customHeight="1" s="77">
+    <row r="38" ht="32.1" customHeight="1" s="77">
       <c r="A38" t="inlineStr">
         <is>
           <t xml:space="preserve"> СРЕДА      </t>
@@ -7347,15 +7347,13 @@
       <c r="E38" s="427" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
-Лобачева Н.Н.   9и
-Мякушкина  О.В.   10и</t>
+Лобачева Н.Н.   9и             Мякушкина  О.В.   10и</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
-Лобачева Н.Н.   9и
-Мякушкина  О.В.   10и</t>
+Лобачева Н.Н.   9и             Мякушкина  О.В.   10и</t>
         </is>
       </c>
       <c r="G38" s="123" t="inlineStr">
@@ -7434,7 +7432,7 @@
       </c>
       <c r="U38" s="124" t="n"/>
     </row>
-    <row r="39" ht="30" customHeight="1" s="77" thickBot="1">
+    <row r="39" ht="32.1" customHeight="1" s="77" thickBot="1">
       <c r="A39" t="inlineStr">
         <is>
           <t xml:space="preserve"> СРЕДА      </t>
@@ -7455,15 +7453,13 @@
       <c r="E39" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
-Лобачева Н.Н.   9и
-Мякушкина  О.В.   10и</t>
+Лобачева Н.Н.   9и             Мякушкина  О.В.   10и</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
-Лобачева Н.Н.   9и
-Мякушкина  О.В.   10и</t>
+Лобачева Н.Н.   9и             Мякушкина  О.В.   10и</t>
         </is>
       </c>
       <c r="G39" s="127" t="inlineStr">
@@ -7545,7 +7541,7 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="30" customHeight="1" s="77">
+    <row r="40" ht="32.1" customHeight="1" s="77">
       <c r="A40" t="inlineStr">
         <is>
           <t xml:space="preserve"> СРЕДА      </t>
@@ -7646,7 +7642,7 @@
       </c>
       <c r="U40" s="124" t="n"/>
     </row>
-    <row r="41" ht="30" customHeight="1" s="77" thickBot="1">
+    <row r="41" ht="32.1" customHeight="1" s="77" thickBot="1">
       <c r="A41" t="inlineStr">
         <is>
           <t xml:space="preserve"> СРЕДА      </t>
@@ -7744,7 +7740,7 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="30" customHeight="1" s="77">
+    <row r="42" ht="32.1" customHeight="1" s="77">
       <c r="A42" t="inlineStr">
         <is>
           <t xml:space="preserve"> СРЕДА      </t>
@@ -7822,7 +7818,7 @@
       <c r="T42" s="427" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
     </row>
-    <row r="43" ht="30" customHeight="1" s="77" thickBot="1">
+    <row r="43" ht="32.1" customHeight="1" s="77" thickBot="1">
       <c r="A43" t="inlineStr">
         <is>
           <t xml:space="preserve"> СРЕДА      </t>
@@ -7905,7 +7901,7 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
     </row>
-    <row r="44" ht="30" customHeight="1" s="77">
+    <row r="44" ht="32.1" customHeight="1" s="77">
       <c r="A44" t="inlineStr">
         <is>
           <t xml:space="preserve"> СРЕДА      </t>
@@ -7954,7 +7950,7 @@
       </c>
       <c r="I44" s="427" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" s="168" t="inlineStr"/>
+      <c r="K44" s="160" t="inlineStr"/>
       <c r="L44" s="427" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" s="427" t="n"/>
@@ -7978,7 +7974,7 @@
       <c r="T44" s="427" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
     </row>
-    <row r="45" ht="30" customHeight="1" s="77" thickBot="1">
+    <row r="45" ht="32.1" customHeight="1" s="77" thickBot="1">
       <c r="A45" t="inlineStr">
         <is>
           <t xml:space="preserve"> СРЕДА      </t>
@@ -8048,7 +8044,7 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" s="427" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" s="168" t="inlineStr"/>
+      <c r="K46" s="160" t="inlineStr"/>
       <c r="L46" s="427" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" s="427" t="inlineStr"/>
@@ -8153,13 +8149,13 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
     </row>
-    <row r="50" ht="30" customHeight="1" s="77" thickTop="1">
+    <row r="50" ht="32.1" customHeight="1" s="77" thickTop="1">
       <c r="A50" s="421" t="inlineStr">
         <is>
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B50" s="195" t="inlineStr">
+      <c r="B50" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -8194,7 +8190,7 @@
       <c r="T50" s="427" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
     </row>
-    <row r="51" ht="30" customHeight="1" s="77" thickBot="1">
+    <row r="51" ht="32.1" customHeight="1" s="77" thickBot="1">
       <c r="A51" t="inlineStr">
         <is>
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
@@ -8235,7 +8231,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
     </row>
-    <row r="52" ht="30" customHeight="1" s="77">
+    <row r="52" ht="32.1" customHeight="1" s="77">
       <c r="A52" t="inlineStr">
         <is>
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
@@ -8338,7 +8334,7 @@
         </is>
       </c>
     </row>
-    <row r="53" ht="30" customHeight="1" s="77" thickBot="1">
+    <row r="53" ht="32.1" customHeight="1" s="77" thickBot="1">
       <c r="A53" t="inlineStr">
         <is>
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
@@ -8484,7 +8480,7 @@
           <t>л.Основы экономики        Серебрякова Н.А.   9</t>
         </is>
       </c>
-      <c r="K54" s="251" t="inlineStr">
+      <c r="K54" s="193" t="inlineStr">
         <is>
           <t>л.Культурология                  Черных В.Д.   452</t>
         </is>
@@ -8591,7 +8587,7 @@
           <t>л.Метрология и стандартизация           Алехина  А.В.   401</t>
         </is>
       </c>
-      <c r="K55" s="255" t="inlineStr">
+      <c r="K55" s="197" t="inlineStr">
         <is>
           <t>л.Философия                  Черниговских И.В.   452</t>
         </is>
@@ -8698,7 +8694,7 @@
           <t>Элективные дисциплины (курсы) по физической культуре и спорту,    общая физическая подготовка</t>
         </is>
       </c>
-      <c r="K56" s="251" t="inlineStr">
+      <c r="K56" s="193" t="inlineStr">
         <is>
           <t>л.Правоведение                      Черенков Р.А.   452</t>
         </is>
@@ -8876,7 +8872,7 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" s="427" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" s="168" t="inlineStr"/>
+      <c r="K58" s="160" t="inlineStr"/>
       <c r="L58" s="359" t="inlineStr">
         <is>
           <t>пр.Философия           Черниговских И.В.   44</t>
@@ -9006,7 +9002,7 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" s="427" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" s="168" t="inlineStr"/>
+      <c r="K60" s="160" t="inlineStr"/>
       <c r="L60" s="427" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" s="427" t="inlineStr"/>
@@ -9111,13 +9107,13 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
     </row>
-    <row r="64" ht="30.95" customHeight="1" s="77" thickTop="1">
+    <row r="64" ht="32.1" customHeight="1" s="77" thickTop="1">
       <c r="A64" s="421" t="inlineStr">
         <is>
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B64" s="195" t="inlineStr">
+      <c r="B64" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -9162,7 +9158,7 @@
       <c r="T64" s="427" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
     </row>
-    <row r="65" ht="30.95" customHeight="1" s="77" thickBot="1">
+    <row r="65" ht="32.1" customHeight="1" s="77" thickBot="1">
       <c r="A65" t="inlineStr">
         <is>
           <t xml:space="preserve">ПЯТНИЦА     </t>
@@ -9203,7 +9199,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
     </row>
-    <row r="66" ht="30" customHeight="1" s="77">
+    <row r="66" ht="32.1" customHeight="1" s="77">
       <c r="A66" t="inlineStr">
         <is>
           <t xml:space="preserve">ПЯТНИЦА     </t>
@@ -9250,7 +9246,7 @@
 Кожанова  Л.В.   9и          Молодых  Е.А.   10и</t>
         </is>
       </c>
-      <c r="K66" s="168" t="inlineStr">
+      <c r="K66" s="160" t="inlineStr">
         <is>
           <t>л.Неорганическая химия
 Нифталиев С.И.   020</t>
@@ -9295,7 +9291,7 @@
         </is>
       </c>
     </row>
-    <row r="67" ht="30" customHeight="1" s="77" thickBot="1">
+    <row r="67" ht="32.1" customHeight="1" s="77" thickBot="1">
       <c r="A67" t="inlineStr">
         <is>
           <t xml:space="preserve">ПЯТНИЦА     </t>
@@ -9391,7 +9387,7 @@
         </is>
       </c>
     </row>
-    <row r="68" ht="30" customHeight="1" s="77">
+    <row r="68" ht="32.1" customHeight="1" s="77">
       <c r="A68" t="inlineStr">
         <is>
           <t xml:space="preserve">ПЯТНИЦА     </t>
@@ -9493,7 +9489,7 @@
         </is>
       </c>
     </row>
-    <row r="69" ht="30" customHeight="1" s="77" thickBot="1">
+    <row r="69" ht="32.1" customHeight="1" s="77" thickBot="1">
       <c r="A69" t="inlineStr">
         <is>
           <t xml:space="preserve">ПЯТНИЦА     </t>
@@ -9595,7 +9591,7 @@
         </is>
       </c>
     </row>
-    <row r="70" ht="30" customHeight="1" s="77">
+    <row r="70" ht="32.1" customHeight="1" s="77">
       <c r="A70" t="inlineStr">
         <is>
           <t xml:space="preserve">ПЯТНИЦА     </t>
@@ -9634,7 +9630,7 @@
       </c>
       <c r="I70" s="359" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" s="168" t="inlineStr">
+      <c r="K70" s="160" t="inlineStr">
         <is>
           <t>пр.Теор. основы неорг. синтеза
 Лыгина Л.В.   020</t>
@@ -9681,7 +9677,7 @@
       </c>
       <c r="U70" s="124" t="n"/>
     </row>
-    <row r="71" ht="30" customHeight="1" s="77" thickBot="1">
+    <row r="71" ht="32.1" customHeight="1" s="77" thickBot="1">
       <c r="A71" t="inlineStr">
         <is>
           <t xml:space="preserve">ПЯТНИЦА     </t>
@@ -9765,7 +9761,7 @@
         </is>
       </c>
     </row>
-    <row r="72" ht="30" customHeight="1" s="77">
+    <row r="72" ht="32.1" customHeight="1" s="77">
       <c r="A72" t="inlineStr">
         <is>
           <t xml:space="preserve">ПЯТНИЦА     </t>
@@ -9826,7 +9822,7 @@
       </c>
       <c r="U72" s="124" t="n"/>
     </row>
-    <row r="73" ht="30" customHeight="1" s="77" thickBot="1">
+    <row r="73" ht="32.1" customHeight="1" s="77" thickBot="1">
       <c r="A73" t="inlineStr">
         <is>
           <t xml:space="preserve">ПЯТНИЦА     </t>
@@ -9906,7 +9902,7 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" s="427" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" s="168" t="inlineStr"/>
+      <c r="K74" s="160" t="inlineStr"/>
       <c r="L74" s="427" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" s="427" t="inlineStr"/>
@@ -10017,7 +10013,7 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B78" s="195" t="inlineStr">
+      <c r="B78" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -10092,7 +10088,7 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" s="427" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" s="168" t="inlineStr"/>
+      <c r="K80" s="160" t="inlineStr"/>
       <c r="L80" s="427" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" s="427" t="inlineStr"/>
@@ -10154,7 +10150,7 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" s="427" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" s="168" t="inlineStr"/>
+      <c r="K82" s="160" t="inlineStr"/>
       <c r="L82" s="427" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" s="427" t="inlineStr"/>
@@ -10216,7 +10212,7 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" s="427" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" s="168" t="inlineStr"/>
+      <c r="K84" s="160" t="inlineStr"/>
       <c r="L84" s="427" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" s="427" t="inlineStr"/>
@@ -10470,7 +10466,7 @@
       <c r="V92" s="75" t="n"/>
     </row>
     <row r="93" ht="27.75" customFormat="1" customHeight="1" s="75">
-      <c r="C93" s="243" t="inlineStr">
+      <c r="C93" s="254" t="inlineStr">
         <is>
           <t>Декан факультета _____________________И.Н.Пугачева</t>
         </is>
@@ -10505,7 +10501,7 @@
       <c r="K93" s="81" t="n"/>
       <c r="M93" s="81" t="n"/>
       <c r="N93" s="81" t="n"/>
-      <c r="O93" s="244" t="inlineStr">
+      <c r="O93" s="255" t="inlineStr">
         <is>
           <t xml:space="preserve">Начальник учебно-методического управления _____________________ Фролова Л.Н.   </t>
         </is>
@@ -10700,7 +10696,7 @@
           <t>Часы</t>
         </is>
       </c>
-      <c r="C7" s="233" t="inlineStr">
+      <c r="C7" s="245" t="inlineStr">
         <is>
           <t>Х-171</t>
         </is>
@@ -10758,7 +10754,7 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B8" s="195" t="inlineStr">
+      <c r="B8" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -11500,7 +11496,7 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B22" s="195" t="inlineStr">
+      <c r="B22" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -12125,7 +12121,7 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B36" s="195" t="inlineStr">
+      <c r="B36" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -12697,7 +12693,7 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B50" s="195" t="inlineStr">
+      <c r="B50" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -13319,7 +13315,7 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B64" s="195" t="inlineStr">
+      <c r="B64" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -13937,7 +13933,7 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B78" s="195" t="inlineStr">
+      <c r="B78" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -14380,7 +14376,7 @@
           <t>РАСПИСАНИЕ</t>
         </is>
       </c>
-      <c r="R2" s="246" t="inlineStr">
+      <c r="R2" s="257" t="inlineStr">
         <is>
           <t>"Утверждаю"</t>
         </is>
@@ -14438,7 +14434,7 @@
       </c>
       <c r="P3" s="75" t="n"/>
       <c r="Q3" s="75" t="n"/>
-      <c r="R3" s="246" t="inlineStr">
+      <c r="R3" s="257" t="inlineStr">
         <is>
           <t>Проректор по учебной работе</t>
         </is>
@@ -14464,7 +14460,7 @@
       <c r="O4" s="80" t="n"/>
       <c r="P4" s="75" t="n"/>
       <c r="Q4" s="75" t="n"/>
-      <c r="R4" s="247" t="inlineStr">
+      <c r="R4" s="258" t="inlineStr">
         <is>
           <t>В.Н. Василенко</t>
         </is>
@@ -14620,7 +14616,7 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B8" s="195" t="inlineStr">
+      <c r="B8" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -15311,7 +15307,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" s="486" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" s="168" t="inlineStr"/>
+      <c r="P18" s="160" t="inlineStr"/>
       <c r="Q18" s="334" t="inlineStr"/>
       <c r="R18" s="353" t="inlineStr"/>
     </row>
@@ -15405,7 +15401,7 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B22" s="195" t="inlineStr">
+      <c r="B22" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -15545,7 +15541,7 @@
           <t>л.Специальная технология полимерных изделий             Седых  В.А.   6-36а</t>
         </is>
       </c>
-      <c r="P24" s="168" t="inlineStr">
+      <c r="P24" s="160" t="inlineStr">
         <is>
           <t>пр.Эколого-экономический анализ в создании энерго- и ресурсосберегающих технологий
 Плотникова Р.Н.   151</t>
@@ -15718,7 +15714,7 @@
           <t>л.Методы анализа и управления качеством продуктов полимерной химии             Губин А.С.    6-36а</t>
         </is>
       </c>
-      <c r="P26" s="168" t="inlineStr">
+      <c r="P26" s="160" t="inlineStr">
         <is>
           <t>л.Эколого-экономический анализ в создании энерго- и ресурсосберегающих технологий
 Плотникова Р.Н.   143</t>
@@ -15915,7 +15911,7 @@
 Губин А.С.   6-42</t>
         </is>
       </c>
-      <c r="P28" s="168" t="inlineStr"/>
+      <c r="P28" s="160" t="inlineStr"/>
       <c r="Q28" s="334" t="inlineStr">
         <is>
           <t>пр.Эколого-экономический анализ в создании энерго- и ресурсосберегающих технологий
@@ -16088,7 +16084,7 @@
 Губин А.С.   6-42</t>
         </is>
       </c>
-      <c r="P30" s="168" t="inlineStr"/>
+      <c r="P30" s="160" t="inlineStr"/>
       <c r="Q30" s="334" t="inlineStr">
         <is>
           <t>пр.Эколого-экономический анализ в создании энерго- и ресурсосберегающих технологий
@@ -16201,7 +16197,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" s="486" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" s="168" t="inlineStr"/>
+      <c r="P32" s="160" t="inlineStr"/>
       <c r="Q32" s="334" t="inlineStr"/>
       <c r="R32" s="389" t="inlineStr"/>
     </row>
@@ -16295,7 +16291,7 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B36" s="195" t="inlineStr">
+      <c r="B36" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -16850,7 +16846,7 @@
           <t>л.Технология и оборудование производства и переработки полимеров        Шутилин  Ю.Ф.   6-36а</t>
         </is>
       </c>
-      <c r="P42" s="168" t="inlineStr">
+      <c r="P42" s="160" t="inlineStr">
         <is>
           <t>л.Оценка воздействия на ОС и экологическое сопровождение природопользования
 Репин П.С.   6-35</t>
@@ -17007,7 +17003,7 @@
 Саввин П.Н.   6-09</t>
         </is>
       </c>
-      <c r="P44" s="168" t="inlineStr"/>
+      <c r="P44" s="160" t="inlineStr"/>
       <c r="Q44" s="333" t="inlineStr">
         <is>
           <t>лаб.Проект. энерго- и ресурсосб. предпр...
@@ -17103,7 +17099,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" s="486" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" s="168" t="inlineStr"/>
+      <c r="P46" s="160" t="inlineStr"/>
       <c r="Q46" s="334" t="inlineStr"/>
       <c r="R46" s="353" t="inlineStr"/>
     </row>
@@ -17197,7 +17193,7 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B50" s="195" t="inlineStr">
+      <c r="B50" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -17410,7 +17406,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" s="486" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" s="168" t="inlineStr">
+      <c r="P52" s="160" t="inlineStr">
         <is>
           <t>л.Управление энерго- и ресурсосбережением на предприятии
 Попова Л.В.   6-35</t>
@@ -17584,7 +17580,7 @@
           <t>л.Химическая технология неорганических веществ               Козадёрова О.А.   143</t>
         </is>
       </c>
-      <c r="P54" s="168" t="inlineStr">
+      <c r="P54" s="160" t="inlineStr">
         <is>
           <t>пр.Машины и аппараты химических производств, нефтехимии и биотехнологии
 Мальцев М.В.   6-24</t>
@@ -17856,7 +17852,7 @@
           <t>л.Введение в технологию косметических средств           Саввин П.Н.   143</t>
         </is>
       </c>
-      <c r="P58" s="168" t="inlineStr"/>
+      <c r="P58" s="160" t="inlineStr"/>
       <c r="Q58" s="334" t="inlineStr"/>
       <c r="R58" s="389" t="inlineStr"/>
     </row>
@@ -17910,7 +17906,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" s="486" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
-      <c r="P60" s="168" t="inlineStr"/>
+      <c r="P60" s="160" t="inlineStr"/>
       <c r="Q60" s="334" t="inlineStr"/>
       <c r="R60" s="389" t="inlineStr"/>
     </row>
@@ -18004,7 +18000,7 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B64" s="195" t="inlineStr">
+      <c r="B64" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -18127,7 +18123,7 @@
         </is>
       </c>
       <c r="O66" s="108" t="n"/>
-      <c r="P66" s="168" t="inlineStr"/>
+      <c r="P66" s="160" t="inlineStr"/>
       <c r="Q66" s="334" t="inlineStr">
         <is>
           <t>л.Специальное оборудование отрасли
@@ -18283,7 +18279,7 @@
         </is>
       </c>
       <c r="O68" s="108" t="n"/>
-      <c r="P68" s="168" t="inlineStr"/>
+      <c r="P68" s="160" t="inlineStr"/>
       <c r="Q68" s="334" t="inlineStr">
         <is>
           <t>пр.Специальное оборудование отрасли
@@ -18454,7 +18450,7 @@
         </is>
       </c>
       <c r="O70" s="108" t="n"/>
-      <c r="P70" s="168" t="inlineStr"/>
+      <c r="P70" s="160" t="inlineStr"/>
       <c r="Q70" s="333" t="inlineStr"/>
       <c r="R70" s="386" t="inlineStr">
         <is>
@@ -18620,7 +18616,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" s="486" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
-      <c r="P72" s="168" t="inlineStr"/>
+      <c r="P72" s="160" t="inlineStr"/>
       <c r="Q72" s="334" t="inlineStr"/>
       <c r="R72" s="353" t="inlineStr"/>
     </row>
@@ -18701,12 +18697,12 @@
       <c r="H74" s="355" t="inlineStr"/>
       <c r="I74" s="444" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" s="168" t="inlineStr"/>
+      <c r="K74" s="160" t="inlineStr"/>
       <c r="L74" s="486" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" s="486" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
-      <c r="P74" s="168" t="inlineStr"/>
+      <c r="P74" s="160" t="inlineStr"/>
       <c r="Q74" s="334" t="inlineStr"/>
       <c r="R74" s="389" t="inlineStr"/>
     </row>
@@ -18757,7 +18753,7 @@
       <c r="H76" s="435" t="inlineStr"/>
       <c r="I76" s="498" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" s="168" t="inlineStr"/>
+      <c r="K76" s="160" t="inlineStr"/>
       <c r="L76" s="500" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" s="500" t="inlineStr"/>
@@ -18800,7 +18796,7 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B78" s="195" t="inlineStr">
+      <c r="B78" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -18874,7 +18870,7 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" s="486" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
-      <c r="P80" s="168" t="inlineStr"/>
+      <c r="P80" s="160" t="inlineStr"/>
       <c r="Q80" s="334" t="inlineStr"/>
       <c r="R80" s="389" t="inlineStr"/>
     </row>
@@ -18925,12 +18921,12 @@
       <c r="H82" s="355" t="inlineStr"/>
       <c r="I82" s="444" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" s="168" t="inlineStr"/>
+      <c r="K82" s="160" t="inlineStr"/>
       <c r="L82" s="486" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" s="486" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
-      <c r="P82" s="168" t="inlineStr"/>
+      <c r="P82" s="160" t="inlineStr"/>
       <c r="Q82" s="334" t="inlineStr"/>
       <c r="R82" s="389" t="inlineStr"/>
     </row>
@@ -18981,12 +18977,12 @@
       <c r="H84" s="355" t="inlineStr"/>
       <c r="I84" s="444" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" s="168" t="inlineStr"/>
+      <c r="K84" s="160" t="inlineStr"/>
       <c r="L84" s="486" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" s="486" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
-      <c r="P84" s="168" t="inlineStr"/>
+      <c r="P84" s="160" t="inlineStr"/>
       <c r="Q84" s="334" t="inlineStr"/>
       <c r="R84" s="389" t="inlineStr"/>
     </row>
@@ -19037,12 +19033,12 @@
       <c r="H86" s="355" t="inlineStr"/>
       <c r="I86" s="444" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" s="168" t="inlineStr"/>
+      <c r="K86" s="160" t="inlineStr"/>
       <c r="L86" s="486" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" s="486" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
-      <c r="P86" s="168" t="inlineStr"/>
+      <c r="P86" s="160" t="inlineStr"/>
       <c r="Q86" s="334" t="inlineStr"/>
       <c r="R86" s="389" t="inlineStr"/>
     </row>
@@ -19093,12 +19089,12 @@
       <c r="H88" s="355" t="inlineStr"/>
       <c r="I88" s="444" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" s="168" t="inlineStr"/>
+      <c r="K88" s="160" t="inlineStr"/>
       <c r="L88" s="427" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" s="427" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
-      <c r="P88" s="168" t="inlineStr"/>
+      <c r="P88" s="160" t="inlineStr"/>
       <c r="Q88" s="334" t="inlineStr"/>
       <c r="R88" s="389" t="inlineStr"/>
     </row>
@@ -19149,12 +19145,12 @@
       <c r="H90" s="392" t="inlineStr"/>
       <c r="I90" s="442" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" s="168" t="inlineStr"/>
+      <c r="K90" s="160" t="inlineStr"/>
       <c r="L90" s="427" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" s="427" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
-      <c r="P90" s="168" t="inlineStr"/>
+      <c r="P90" s="160" t="inlineStr"/>
       <c r="Q90" s="334" t="inlineStr"/>
       <c r="R90" s="471" t="inlineStr"/>
     </row>
@@ -19207,7 +19203,7 @@
       <c r="R92" s="7" t="n"/>
     </row>
     <row r="93" ht="27.75" customFormat="1" customHeight="1" s="75">
-      <c r="C93" s="244" t="inlineStr">
+      <c r="C93" s="255" t="inlineStr">
         <is>
           <t>Декан факультета _____________________И.Н.Пугачева</t>
         </is>
@@ -19232,7 +19228,7 @@
       <c r="I93" s="81" t="n"/>
       <c r="J93" s="81" t="n"/>
       <c r="L93" s="81" t="n"/>
-      <c r="M93" s="244" t="inlineStr">
+      <c r="M93" s="255" t="inlineStr">
         <is>
           <t xml:space="preserve">Начальник учебно-методического управления _____________________  Фролова Л.Н.   </t>
         </is>
@@ -19769,7 +19765,7 @@
     <row r="2" ht="30" customHeight="1" s="77">
       <c r="A2" s="75" t="n"/>
       <c r="B2" s="75" t="n"/>
-      <c r="C2" s="230" t="inlineStr">
+      <c r="C2" s="242" t="inlineStr">
         <is>
           <t>ФГБОУ ВО</t>
         </is>
@@ -19795,7 +19791,7 @@
     <row r="3" ht="30" customHeight="1" s="77">
       <c r="A3" s="75" t="n"/>
       <c r="B3" s="75" t="n"/>
-      <c r="C3" s="231" t="inlineStr">
+      <c r="C3" s="243" t="inlineStr">
         <is>
           <t>"Воронежский государственный</t>
         </is>
@@ -19821,7 +19817,7 @@
     <row r="4" ht="30.75" customHeight="1" s="77" thickBot="1">
       <c r="A4" s="75" t="n"/>
       <c r="B4" s="75" t="n"/>
-      <c r="C4" s="231" t="inlineStr">
+      <c r="C4" s="243" t="inlineStr">
         <is>
           <t>университет инженерных технологий"</t>
         </is>
@@ -19837,7 +19833,7 @@
         </is>
       </c>
       <c r="F4" s="75" t="n"/>
-      <c r="G4" s="247" t="inlineStr">
+      <c r="G4" s="258" t="inlineStr">
         <is>
           <t>В.Н. Василенко</t>
         </is>
@@ -20004,7 +20000,7 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C12" s="168" t="inlineStr">
+      <c r="C12" s="160" t="inlineStr">
         <is>
           <t>пр.Технология перспективных керамических материалов
 Кузнецова И.В.   020</t>
@@ -20050,7 +20046,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C14" s="168" t="inlineStr"/>
+      <c r="C14" s="160" t="inlineStr"/>
       <c r="D14" s="333" t="inlineStr">
         <is>
           <t>лаб.Специальное оборудование для переработки эластомеров
@@ -20096,7 +20092,7 @@
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C16" s="168" t="inlineStr"/>
+      <c r="C16" s="160" t="inlineStr"/>
       <c r="D16" s="334" t="inlineStr">
         <is>
           <t>лаб.Специальное оборудование для переработки эластомеров
@@ -20142,7 +20138,7 @@
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C18" s="168" t="inlineStr"/>
+      <c r="C18" s="160" t="inlineStr"/>
       <c r="D18" s="334" t="inlineStr"/>
       <c r="E18" s="353" t="inlineStr"/>
       <c r="F18" s="353" t="inlineStr"/>
@@ -20265,7 +20261,7 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C24" s="168" t="inlineStr">
+      <c r="C24" s="160" t="inlineStr">
         <is>
           <t>пр.Перспективная химическая технология
 Нифталиев С.И.   020</t>
@@ -20321,7 +20317,7 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C26" s="168" t="inlineStr"/>
+      <c r="C26" s="160" t="inlineStr"/>
       <c r="D26" s="334" t="inlineStr"/>
       <c r="E26" s="353" t="inlineStr">
         <is>
@@ -20367,7 +20363,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C28" s="168" t="inlineStr"/>
+      <c r="C28" s="160" t="inlineStr"/>
       <c r="D28" s="334" t="inlineStr"/>
       <c r="E28" s="386" t="inlineStr">
         <is>
@@ -20413,7 +20409,7 @@
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C30" s="168" t="inlineStr"/>
+      <c r="C30" s="160" t="inlineStr"/>
       <c r="D30" s="334" t="inlineStr"/>
       <c r="E30" s="386" t="inlineStr">
         <is>
@@ -20459,7 +20455,7 @@
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C32" s="168" t="inlineStr"/>
+      <c r="C32" s="160" t="inlineStr"/>
       <c r="D32" s="334" t="inlineStr"/>
       <c r="E32" s="353" t="inlineStr"/>
       <c r="F32" s="353" t="inlineStr"/>
@@ -20694,7 +20690,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C42" s="166" t="inlineStr">
+      <c r="C42" s="156" t="inlineStr">
         <is>
           <t>пр.Иностранный язык 
 Хрячкова Л.А.  13   (нем)</t>
@@ -20755,7 +20751,7 @@
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C44" s="168" t="inlineStr"/>
+      <c r="C44" s="160" t="inlineStr"/>
       <c r="D44" s="334" t="inlineStr"/>
       <c r="E44" s="353" t="inlineStr"/>
       <c r="F44" s="353" t="inlineStr"/>
@@ -20791,7 +20787,7 @@
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C46" s="168" t="inlineStr"/>
+      <c r="C46" s="160" t="inlineStr"/>
       <c r="D46" s="334" t="inlineStr"/>
       <c r="E46" s="353" t="inlineStr"/>
       <c r="F46" s="353" t="inlineStr"/>
@@ -20914,7 +20910,7 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C52" s="168" t="inlineStr">
+      <c r="C52" s="160" t="inlineStr">
         <is>
           <t>лаб.Тонкий неорганический синтез
 Лыгина Л.В.   029</t>
@@ -20980,7 +20976,7 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C54" s="168" t="inlineStr"/>
+      <c r="C54" s="160" t="inlineStr"/>
       <c r="D54" s="334" t="inlineStr">
         <is>
           <t>пр.Материалы химии полимеров
@@ -21046,7 +21042,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C56" s="168" t="inlineStr"/>
+      <c r="C56" s="160" t="inlineStr"/>
       <c r="D56" s="334" t="inlineStr">
         <is>
           <t>лаб.Теоретические и экспериментальные методы исследования в химии
@@ -21107,7 +21103,7 @@
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C58" s="168" t="inlineStr"/>
+      <c r="C58" s="160" t="inlineStr"/>
       <c r="D58" s="333" t="inlineStr">
         <is>
           <t>лаб.Теор. и экспериментальные методы исслед. в химии
@@ -21163,7 +21159,7 @@
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C60" s="168" t="inlineStr"/>
+      <c r="C60" s="160" t="inlineStr"/>
       <c r="D60" s="334" t="inlineStr"/>
       <c r="E60" s="353" t="inlineStr"/>
       <c r="F60" s="353" t="inlineStr"/>
@@ -21393,7 +21389,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C70" s="168" t="inlineStr"/>
+      <c r="C70" s="160" t="inlineStr"/>
       <c r="D70" s="334" t="inlineStr">
         <is>
           <t>лаб.Рецептуростроение эластомеров
@@ -21454,7 +21450,7 @@
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C72" s="168" t="inlineStr"/>
+      <c r="C72" s="160" t="inlineStr"/>
       <c r="D72" s="333" t="inlineStr">
         <is>
           <t>лаб.Рецептуростроение эластомеров
@@ -21510,7 +21506,7 @@
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C74" s="168" t="inlineStr"/>
+      <c r="C74" s="160" t="inlineStr"/>
       <c r="D74" s="334" t="inlineStr"/>
       <c r="E74" s="353" t="inlineStr"/>
       <c r="F74" s="353" t="inlineStr"/>
@@ -21628,7 +21624,7 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C80" s="168" t="inlineStr"/>
+      <c r="C80" s="160" t="inlineStr"/>
       <c r="D80" s="334" t="inlineStr"/>
       <c r="E80" s="353" t="inlineStr"/>
       <c r="F80" s="353" t="inlineStr">
@@ -21674,7 +21670,7 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C82" s="168" t="inlineStr"/>
+      <c r="C82" s="160" t="inlineStr"/>
       <c r="D82" s="334" t="inlineStr"/>
       <c r="E82" s="353" t="inlineStr"/>
       <c r="F82" s="353" t="inlineStr">
@@ -21720,7 +21716,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C84" s="168" t="inlineStr"/>
+      <c r="C84" s="160" t="inlineStr"/>
       <c r="D84" s="334" t="inlineStr"/>
       <c r="E84" s="353" t="inlineStr"/>
       <c r="F84" s="353" t="inlineStr"/>
@@ -21756,7 +21752,7 @@
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C86" s="168" t="inlineStr"/>
+      <c r="C86" s="160" t="inlineStr"/>
       <c r="D86" s="334" t="inlineStr"/>
       <c r="E86" s="353" t="inlineStr"/>
       <c r="F86" s="353" t="inlineStr"/>
@@ -21866,7 +21862,7 @@
     <row r="93" ht="27.75" customHeight="1" s="77">
       <c r="A93" s="5" t="n"/>
       <c r="B93" s="4" t="n"/>
-      <c r="C93" s="243" t="inlineStr">
+      <c r="C93" s="254" t="inlineStr">
         <is>
           <t>Декан факультета _____________________И.Н.Пугачева</t>
         </is>
@@ -22087,7 +22083,7 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B8" s="195" t="inlineStr">
+      <c r="B8" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -22589,7 +22585,7 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B22" s="195" t="inlineStr">
+      <c r="B22" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -23084,7 +23080,7 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B36" s="195" t="inlineStr">
+      <c r="B36" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -23590,7 +23586,7 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B50" s="195" t="inlineStr">
+      <c r="B50" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -24125,7 +24121,7 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B64" s="195" t="inlineStr">
+      <c r="B64" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -24638,7 +24634,7 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B78" s="195" t="inlineStr">
+      <c r="B78" s="205" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
